--- a/data/scheduling_DNN/predict/0.5/result10.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result10.xlsx
@@ -570,10 +570,10 @@
         <v>0.9794797897338867</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.4097662270069122</v>
       </c>
       <c r="W2" t="n">
-        <v>0.20391646027565</v>
+        <v>0.3245735764503479</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9676339626312256</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.5290001630783081</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1935418397188187</v>
+        <v>0.1923996061086655</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8928799629211426</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.5026116371154785</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2938642203807831</v>
+        <v>0.1523093730211258</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9529950618743896</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.8626406788825989</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02090596407651901</v>
+        <v>0.008163914084434509</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8731439113616943</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.4222833514213562</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2204819768667221</v>
+        <v>0.2032752484083176</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8645679950714111</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.5078588724136353</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2639902234077454</v>
+        <v>0.1272414028644562</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8625519275665283</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.4039004445075989</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1059618964791298</v>
+        <v>0.2103611826896667</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9215719699859619</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.8620975613594055</v>
       </c>
       <c r="W9" t="n">
-        <v>0.110904760658741</v>
+        <v>0.003537205280736089</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8664600849151611</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.8605545163154602</v>
       </c>
       <c r="W10" t="n">
-        <v>0.003491728799417615</v>
+        <v>3.487574213068001e-05</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8702640533447266</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.4038794338703156</v>
       </c>
       <c r="W11" t="n">
-        <v>0.007623882032930851</v>
+        <v>0.2175146192312241</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8581809997558594</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.8619645833969116</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1184582263231277</v>
+        <v>1.43155048135668e-05</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9246721267700195</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.8701926469802856</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07200180739164352</v>
+        <v>0.002968013752251863</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8902468681335449</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.397557258605957</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1702945232391357</v>
+        <v>0.242743045091629</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9461069107055664</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.8864646553993225</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02637442015111446</v>
+        <v>0.00355719868093729</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8925089836120605</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.4033328294754028</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2389784902334213</v>
+        <v>0.2392933070659637</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>1.032396793365479</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.8975258469581604</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2790047228336334</v>
+        <v>0.0181901715695858</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8889100551605225</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.8935734033584595</v>
       </c>
       <c r="W18" t="n">
-        <v>0.05574476718902588</v>
+        <v>2.174681685573887e-05</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8629519939422607</v>
       </c>
       <c r="V19" t="n">
-        <v>0.381181538105011</v>
+        <v>0.5167421102523804</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2321027666330338</v>
+        <v>0.1198612824082375</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9000070095062256</v>
       </c>
       <c r="V20" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.4878368377685547</v>
       </c>
       <c r="W20" t="n">
-        <v>0.009962465614080429</v>
+        <v>0.1698842495679855</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8741238117218018</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.5086510181427002</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2440656423568726</v>
+        <v>0.1335703581571579</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5318021774291992</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.4132230281829834</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0007624374120496213</v>
+        <v>0.01406101509928703</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5245418548583984</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.4904212355613708</v>
       </c>
       <c r="W23" t="n">
-        <v>0.02992849797010422</v>
+        <v>0.001164216664619744</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.525831937789917</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.3972001373767853</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01498270500451326</v>
+        <v>0.01654613949358463</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5252861976623535</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.4035132229328156</v>
       </c>
       <c r="W25" t="n">
-        <v>0.08110237866640091</v>
+        <v>0.01482865773141384</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5288469791412354</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.8934439420700073</v>
       </c>
       <c r="W26" t="n">
-        <v>0.02613097429275513</v>
+        <v>0.1329309493303299</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5142171382904053</v>
       </c>
       <c r="V27" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.8623038530349731</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02671030163764954</v>
+        <v>0.121164359152317</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5158491134643555</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.3996673226356506</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01260256487876177</v>
+        <v>0.01349820848554373</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5251669883728027</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.5090201497077942</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0006715206545777619</v>
+        <v>0.0002607204078231007</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5254950523376465</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.403455913066864</v>
       </c>
       <c r="W30" t="n">
-        <v>7.702461152803153e-05</v>
+        <v>0.01489355135709047</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5749380588531494</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.4128554463386536</v>
       </c>
       <c r="W31" t="n">
-        <v>0.00112640019506216</v>
+        <v>0.02627077326178551</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.523745059967041</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.8613713383674622</v>
       </c>
       <c r="W32" t="n">
-        <v>0.03049486130475998</v>
+        <v>0.1139915063977242</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5168280601501465</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.5169088244438171</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03250310197472572</v>
+        <v>6.52287113211969e-09</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5223760604858398</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.5045785903930664</v>
       </c>
       <c r="W34" t="n">
-        <v>7.045127858873457e-05</v>
+        <v>0.0003167499380651861</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5150079727172852</v>
       </c>
       <c r="V35" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.3971743583679199</v>
       </c>
       <c r="W35" t="n">
-        <v>0.08462010324001312</v>
+        <v>0.0138847604393959</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5180509090423584</v>
       </c>
       <c r="V36" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.4185864925384521</v>
       </c>
       <c r="W36" t="n">
-        <v>0.02735705114901066</v>
+        <v>0.009893170557916164</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5202999114990234</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.3993147611618042</v>
       </c>
       <c r="W37" t="n">
-        <v>0.02225344441831112</v>
+        <v>0.01463740691542625</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5169610977172852</v>
       </c>
       <c r="V38" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.8750563263893127</v>
       </c>
       <c r="W38" t="n">
-        <v>0.1810637712478638</v>
+        <v>0.1282321959733963</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5169391632080078</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.5079796314239502</v>
       </c>
       <c r="W39" t="n">
-        <v>9.330696229881141e-06</v>
+        <v>8.02732101874426e-05</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5150978565216064</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.4931794404983521</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01594012416899204</v>
+        <v>0.0004804169584531337</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5135898590087891</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.5051553249359131</v>
       </c>
       <c r="W41" t="n">
-        <v>8.610449731349945e-05</v>
+        <v>7.114136678865179e-05</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.44476318359375</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.5464513897895813</v>
       </c>
       <c r="W42" t="n">
-        <v>0.02671968378126621</v>
+        <v>0.010340491309762</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.399029016494751</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.4985857903957367</v>
       </c>
       <c r="W43" t="n">
-        <v>0.05950300022959709</v>
+        <v>0.009911551140248775</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3880929946899414</v>
       </c>
       <c r="V44" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.5166212320327759</v>
       </c>
       <c r="W44" t="n">
-        <v>0.1563348770141602</v>
+        <v>0.01651950739324093</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3886041641235352</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.868533730506897</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01605483517050743</v>
+        <v>0.2303323894739151</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3879408836364746</v>
       </c>
       <c r="V46" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.5163418054580688</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1569240540266037</v>
+        <v>0.01648679748177528</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3933541774749756</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.8617706894874573</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01985286548733711</v>
+        <v>0.2194140255451202</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4579198360443115</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.4050222039222717</v>
       </c>
       <c r="W48" t="n">
-        <v>0.003201762679964304</v>
+        <v>0.002798159373924136</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.388361930847168</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.8648245930671692</v>
       </c>
       <c r="W49" t="n">
-        <v>0.03000307641923428</v>
+        <v>0.2270166724920273</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3886840343475342</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.5104738473892212</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01251920312643051</v>
+        <v>0.01483275834470987</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3883380889892578</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.8725807666778564</v>
       </c>
       <c r="W51" t="n">
-        <v>0.0002264583599753678</v>
+        <v>0.2344909757375717</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3863601684570312</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.4051026701927185</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0002842257090378553</v>
+        <v>0.0003512813709676266</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3927228450775146</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.5063625574111938</v>
       </c>
       <c r="W53" t="n">
-        <v>0.08398932218551636</v>
+        <v>0.01291398424655199</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3897840976715088</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.8981178402900696</v>
       </c>
       <c r="W54" t="n">
-        <v>0.03959056362509727</v>
+        <v>0.2584031820297241</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3866229057312012</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.4224808514118195</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0002901295374613255</v>
+        <v>0.001285792212001979</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3870401382446289</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.5165348052978516</v>
       </c>
       <c r="W56" t="n">
-        <v>0.06503970921039581</v>
+        <v>0.01676886901259422</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.386038064956665</v>
       </c>
       <c r="V57" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.8901140093803406</v>
       </c>
       <c r="W57" t="n">
-        <v>0.3097317516803741</v>
+        <v>0.2540925443172455</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3887989521026611</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.87265545129776</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01565186306834221</v>
+        <v>0.2341171056032181</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3902380466461182</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.5091181993484497</v>
       </c>
       <c r="W59" t="n">
-        <v>0.08546695113182068</v>
+        <v>0.01413249038159847</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3865880966186523</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.8737034797668457</v>
       </c>
       <c r="W60" t="n">
-        <v>0.0161883644759655</v>
+        <v>0.237281396985054</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3878679275512695</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.3972227275371552</v>
       </c>
       <c r="W61" t="n">
-        <v>0.006140110548585653</v>
+        <v>8.751228597247973e-05</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8751311302185059</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.8701720833778381</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2225576490163803</v>
+        <v>2.459214556438383e-05</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8647689819335938</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.8699114918708801</v>
       </c>
       <c r="W63" t="n">
-        <v>0.09171134233474731</v>
+        <v>2.644540836627129e-05</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8650479316711426</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.4047682881355286</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2340457141399384</v>
+        <v>0.2118573486804962</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9153280258178711</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.405261367559433</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2617897093296051</v>
+        <v>0.2601679563522339</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8817720413208008</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.8791357278823853</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1206390187144279</v>
+        <v>6.950148417672608e-06</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8586130142211914</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.5063407421112061</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2070189118385315</v>
+        <v>0.1240957528352737</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8732349872589111</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.4234715402126312</v>
       </c>
       <c r="W68" t="n">
-        <v>0.04684419184923172</v>
+        <v>0.2022871524095535</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>1.008948802947998</v>
       </c>
       <c r="V69" t="n">
-        <v>0.514564037322998</v>
+        <v>0.852663516998291</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2444162964820862</v>
+        <v>0.0244250912219286</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8601210117340088</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.4047612249851227</v>
       </c>
       <c r="W70" t="n">
-        <v>0.08947858959436417</v>
+        <v>0.2073525339365005</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.865354061126709</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.400994211435318</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2132185399532318</v>
+        <v>0.2156300693750381</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8860900402069092</v>
       </c>
       <c r="V72" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.498473048210144</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2865671515464783</v>
+        <v>0.1502469331026077</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.871002197265625</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.4970779716968536</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1132503747940063</v>
+        <v>0.139819324016571</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8614761829376221</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.8730222582817078</v>
       </c>
       <c r="W74" t="n">
-        <v>0.0435202457010746</v>
+        <v>0.0001333118561888114</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8716320991516113</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.5083644986152649</v>
       </c>
       <c r="W75" t="n">
-        <v>0.2189716398715973</v>
+        <v>0.1319633424282074</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.863724946975708</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.8786113858222961</v>
       </c>
       <c r="W76" t="n">
-        <v>0.04394469037652016</v>
+        <v>0.0002216060674982145</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8873779773712158</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.4914858639240265</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1462592333555222</v>
+        <v>0.1567305624485016</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8622767925262451</v>
       </c>
       <c r="V78" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.5065538883209229</v>
       </c>
       <c r="W78" t="n">
-        <v>0.002721389522776008</v>
+        <v>0.1265387833118439</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8673980236053467</v>
       </c>
       <c r="V79" t="n">
-        <v>0.672019362449646</v>
+        <v>0.397230476140976</v>
       </c>
       <c r="W79" t="n">
-        <v>0.03817282244563103</v>
+        <v>0.2210575193166733</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8592221736907959</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.4009712934494019</v>
       </c>
       <c r="W80" t="n">
-        <v>0.04178284481167793</v>
+        <v>0.2099938690662384</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8615729808807373</v>
       </c>
       <c r="V81" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.5087769627571106</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2592254877090454</v>
+        <v>0.1244650334119797</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5615189075469971</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.3975470364093781</v>
       </c>
       <c r="W82" t="n">
-        <v>0.000844768073875457</v>
+        <v>0.02688677422702312</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5264058113098145</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.8643367886543274</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01331893820315599</v>
+        <v>0.1141973435878754</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5268380641937256</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.8720951676368713</v>
       </c>
       <c r="W84" t="n">
-        <v>0.006147216539829969</v>
+        <v>0.1192024648189545</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5270020961761475</v>
       </c>
       <c r="V85" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.8728877902030945</v>
       </c>
       <c r="W85" t="n">
-        <v>0.1769591569900513</v>
+        <v>0.1196369156241417</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5174300670623779</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.4119375944137573</v>
       </c>
       <c r="W86" t="n">
-        <v>0.001879200222902</v>
+        <v>0.01112866215407848</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5131609439849854</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.5168001651763916</v>
       </c>
       <c r="W87" t="n">
-        <v>0.003797347191721201</v>
+        <v>1.324393087998033e-05</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5126879215240479</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.4235153198242188</v>
       </c>
       <c r="W88" t="n">
-        <v>0.0189464595168829</v>
+        <v>0.007951753214001656</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5149610042572021</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.5079056620597839</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02154867723584175</v>
+        <v>4.977785283699632e-05</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.513498067855835</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.4114404916763306</v>
       </c>
       <c r="W90" t="n">
-        <v>0.02859397977590561</v>
+        <v>0.01041574869304895</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5440680980682373</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.4960290789604187</v>
       </c>
       <c r="W91" t="n">
-        <v>0.009721660055220127</v>
+        <v>0.002307747257873416</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.514362096786499</v>
       </c>
       <c r="V92" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.3971680402755737</v>
       </c>
       <c r="W92" t="n">
-        <v>0.07227209955453873</v>
+        <v>0.01373444683849812</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5152039527893066</v>
       </c>
       <c r="V93" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.5170812606811523</v>
       </c>
       <c r="W93" t="n">
-        <v>0.01950562372803688</v>
+        <v>3.524284920786158e-06</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5121791362762451</v>
       </c>
       <c r="V94" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.8986791968345642</v>
       </c>
       <c r="W94" t="n">
-        <v>0.02552014403045177</v>
+        <v>0.1493822932243347</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5151128768920898</v>
       </c>
       <c r="V95" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.3972282409667969</v>
       </c>
       <c r="W95" t="n">
-        <v>0.1839124709367752</v>
+        <v>0.01389678753912449</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5684380531311035</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.3972095847129822</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0009812993230298162</v>
+        <v>0.02931918762624264</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5167791843414307</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.4952422678470612</v>
       </c>
       <c r="W97" t="n">
-        <v>0.01866067200899124</v>
+        <v>0.0004638387763407081</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5148019790649414</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.5011139512062073</v>
       </c>
       <c r="W98" t="n">
-        <v>0.003757431637495756</v>
+        <v>0.0001873621076811105</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5159130096435547</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.397199809551239</v>
       </c>
       <c r="W99" t="n">
-        <v>0.02774622291326523</v>
+        <v>0.01409282349050045</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5167579650878906</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.3993254601955414</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0001841710763983428</v>
+        <v>0.01379039324820042</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5163929462432861</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.5401638746261597</v>
       </c>
       <c r="W101" t="n">
-        <v>0.001502557541243732</v>
+        <v>0.0005650570383295417</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4155259132385254</v>
       </c>
       <c r="V102" t="n">
-        <v>0.375304102897644</v>
+        <v>0.4221454858779907</v>
       </c>
       <c r="W102" t="n">
-        <v>0.001617794041521847</v>
+        <v>4.381874168757349e-05</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3955559730529785</v>
       </c>
       <c r="V103" t="n">
-        <v>0.946087121963501</v>
+        <v>0.4970959722995758</v>
       </c>
       <c r="W103" t="n">
-        <v>0.3030845522880554</v>
+        <v>0.01031037140637636</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.394136905670166</v>
       </c>
       <c r="V104" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.8703542947769165</v>
       </c>
       <c r="W104" t="n">
-        <v>0.1519240289926529</v>
+        <v>0.2267830073833466</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4081318378448486</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.4969342648983002</v>
       </c>
       <c r="W105" t="n">
-        <v>1.725692726495254e-07</v>
+        <v>0.007885871455073357</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3886780738830566</v>
       </c>
       <c r="V106" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.863395631313324</v>
       </c>
       <c r="W106" t="n">
-        <v>0.000323249667417258</v>
+        <v>0.2253567576408386</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3844249248504639</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.8995059132575989</v>
       </c>
       <c r="W107" t="n">
-        <v>0.0003697244392242283</v>
+        <v>0.2653084099292755</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.4172110557556152</v>
       </c>
       <c r="V108" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.4995777606964111</v>
       </c>
       <c r="W108" t="n">
-        <v>0.1343803852796555</v>
+        <v>0.006784274242818356</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3928868770599365</v>
       </c>
       <c r="V109" t="n">
-        <v>0.531548023223877</v>
+        <v>0.5103051066398621</v>
       </c>
       <c r="W109" t="n">
-        <v>0.0192269142717123</v>
+        <v>0.0137870404869318</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3875470161437988</v>
       </c>
       <c r="V110" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.42951500415802</v>
       </c>
       <c r="W110" t="n">
-        <v>0.1561565697193146</v>
+        <v>0.001761312014423311</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.390531063079834</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.4233974814414978</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01515868399292231</v>
+        <v>0.001080201473087072</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.3919789791107178</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.8711007237434387</v>
       </c>
       <c r="W112" t="n">
-        <v>0.0690259262919426</v>
+        <v>0.2295576483011246</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3898088932037354</v>
       </c>
       <c r="V113" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.8656373620033264</v>
       </c>
       <c r="W113" t="n">
-        <v>0.1782261431217194</v>
+        <v>0.2264127284288406</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.4471960067749023</v>
       </c>
       <c r="V114" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.4969283640384674</v>
       </c>
       <c r="W114" t="n">
-        <v>0.1308250278234482</v>
+        <v>0.002473307307809591</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3903019428253174</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.4113157987594604</v>
       </c>
       <c r="W115" t="n">
-        <v>0.000216007509152405</v>
+        <v>0.0004415821458678693</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.4055271148681641</v>
       </c>
       <c r="V116" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.5167783498764038</v>
       </c>
       <c r="W116" t="n">
-        <v>0.1424429416656494</v>
+        <v>0.01237683743238449</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3889229297637939</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.4099694192409515</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0002085239248117432</v>
+        <v>0.0004429547116160393</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.395211935043335</v>
       </c>
       <c r="V118" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.3972228467464447</v>
       </c>
       <c r="W118" t="n">
-        <v>0.3035611808300018</v>
+        <v>4.043765784444986e-06</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3907198905944824</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.5071492791175842</v>
       </c>
       <c r="W119" t="n">
-        <v>0.08518391847610474</v>
+        <v>0.01355580240488052</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4368448257446289</v>
       </c>
       <c r="V120" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.8696134686470032</v>
       </c>
       <c r="W120" t="n">
-        <v>0.007407614029943943</v>
+        <v>0.1872887015342712</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3910868167877197</v>
       </c>
       <c r="V121" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.8676404356956482</v>
       </c>
       <c r="W121" t="n">
-        <v>0.0002466176811140031</v>
+        <v>0.2271033525466919</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8798351287841797</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.8585912585258484</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2798969149589539</v>
+        <v>0.0004513020103331655</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9314870834350586</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.4119317233562469</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1740238815546036</v>
+        <v>0.2699377536773682</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8852450847625732</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.8621458411216736</v>
       </c>
       <c r="W124" t="n">
-        <v>0.09508161246776581</v>
+        <v>0.0005335750756785274</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8734269142150879</v>
       </c>
       <c r="V125" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.5167267322540283</v>
       </c>
       <c r="W125" t="n">
-        <v>0.005380582995712757</v>
+        <v>0.1272350251674652</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8742849826812744</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.4227532148361206</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1294926106929779</v>
+        <v>0.2038809359073639</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.873403787612915</v>
       </c>
       <c r="V127" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.8673919439315796</v>
       </c>
       <c r="W127" t="n">
-        <v>0.07033408433198929</v>
+        <v>3.614226443460211e-05</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8593220710754395</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.4036847054958344</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1010801568627357</v>
+        <v>0.2076054066419601</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8638341426849365</v>
       </c>
       <c r="V129" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.8677489757537842</v>
       </c>
       <c r="W129" t="n">
-        <v>0.003225293010473251</v>
+        <v>1.532591704744846e-05</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8781170845031738</v>
       </c>
       <c r="V130" t="n">
-        <v>0.534324586391449</v>
+        <v>0.5006875991821289</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1181932836771011</v>
+        <v>0.1424530148506165</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8650071620941162</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.866523265838623</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1221985444426537</v>
+        <v>2.29857050726423e-06</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8964998722076416</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4875848889350891</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1988563537597656</v>
+        <v>0.1672114580869675</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8889548778533936</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.4886422753334045</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1206505298614502</v>
+        <v>0.160250186920166</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8646140098571777</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.498832643032074</v>
       </c>
       <c r="W134" t="n">
-        <v>0.09242811799049377</v>
+        <v>0.1337960064411163</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8637728691101074</v>
       </c>
       <c r="V135" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.8803244233131409</v>
       </c>
       <c r="W135" t="n">
-        <v>0.006673599127680063</v>
+        <v>0.000273953948635608</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.9245738983154297</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.5167827010154724</v>
       </c>
       <c r="W136" t="n">
-        <v>0.168088436126709</v>
+        <v>0.166293665766716</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8660600185394287</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.5167115330696106</v>
       </c>
       <c r="W137" t="n">
-        <v>0.213868111371994</v>
+        <v>0.1220443621277809</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8682930469512939</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.5167410373687744</v>
       </c>
       <c r="W138" t="n">
-        <v>0.2158956378698349</v>
+        <v>0.123588815331459</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8637721538543701</v>
       </c>
       <c r="V139" t="n">
-        <v>0.654965877532959</v>
+        <v>0.5079476833343506</v>
       </c>
       <c r="W139" t="n">
-        <v>0.04360006004571915</v>
+        <v>0.126611053943634</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9180891513824463</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.8688210248947144</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1163972616195679</v>
+        <v>0.002427348401397467</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8653109073638916</v>
       </c>
       <c r="V141" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.5168094635009766</v>
       </c>
       <c r="W141" t="n">
-        <v>0.00742074241861701</v>
+        <v>0.1214532554149628</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5221939086914062</v>
       </c>
       <c r="V142" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.51600182056427</v>
       </c>
       <c r="W142" t="n">
-        <v>0.02949797362089157</v>
+        <v>3.834195376839489e-05</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5186688899993896</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.8806796073913574</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01587478071451187</v>
+        <v>0.1310517638921738</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5193691253662109</v>
       </c>
       <c r="V144" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.4067257642745972</v>
       </c>
       <c r="W144" t="n">
-        <v>0.1789904087781906</v>
+        <v>0.01268852688372135</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5721490383148193</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.8667402267456055</v>
       </c>
       <c r="W145" t="n">
-        <v>0.01475826371461153</v>
+        <v>0.08678396791219711</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5216062068939209</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.5401917695999146</v>
       </c>
       <c r="W146" t="n">
-        <v>0.000336980854626745</v>
+        <v>0.000345423148246482</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5303308963775635</v>
       </c>
       <c r="V147" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.5395402908325195</v>
       </c>
       <c r="W147" t="n">
-        <v>0.03223718330264091</v>
+        <v>8.481294935336336e-05</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5197420120239258</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.8713908791542053</v>
       </c>
       <c r="W148" t="n">
-        <v>0.0001553732581669465</v>
+        <v>0.1236569285392761</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5183150768280029</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.3972108960151672</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0002211449027527124</v>
+        <v>0.01466622296720743</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5188820362091064</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.8724004626274109</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01903932355344296</v>
+        <v>0.1249752789735794</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5194129943847656</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.4996824860572815</v>
       </c>
       <c r="W151" t="n">
-        <v>0.004781602881848812</v>
+        <v>0.0003892929526045918</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5183200836181641</v>
       </c>
       <c r="V152" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.5013266205787659</v>
       </c>
       <c r="W152" t="n">
-        <v>0.1845322996377945</v>
+        <v>0.0002887777809519321</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5253081321716309</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.4124513268470764</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01479298993945122</v>
+        <v>0.01273665856570005</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5175631046295166</v>
       </c>
       <c r="V154" t="n">
-        <v>0.350454181432724</v>
+        <v>0.859646201133728</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0279253926128149</v>
+        <v>0.117020845413208</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5535330772399902</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.890626072883606</v>
       </c>
       <c r="W155" t="n">
-        <v>0.00237217522226274</v>
+        <v>0.1136316880583763</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5701320171356201</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.4921301901340485</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0008390746079385281</v>
+        <v>0.006084285210818052</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5196771621704102</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.4234990477561951</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0003273778420407325</v>
+        <v>0.00925023015588522</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5214629173278809</v>
       </c>
       <c r="V158" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.872675359249115</v>
       </c>
       <c r="W158" t="n">
-        <v>0.03091258555650711</v>
+        <v>0.1233501806855202</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5162808895111084</v>
       </c>
       <c r="V159" t="n">
-        <v>0.514431357383728</v>
+        <v>0.4897632002830505</v>
       </c>
       <c r="W159" t="n">
-        <v>3.420769189688144e-06</v>
+        <v>0.0007031878340058029</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5180668830871582</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.3972011804580688</v>
       </c>
       <c r="W160" t="n">
-        <v>0.0002012196200666949</v>
+        <v>0.01460851822048426</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5511000156402588</v>
       </c>
       <c r="V161" t="n">
-        <v>0.54131019115448</v>
+        <v>0.5064144134521484</v>
       </c>
       <c r="W161" t="n">
-        <v>9.584065992385149e-05</v>
+        <v>0.001996803097426891</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3945629596710205</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.8743777871131897</v>
       </c>
       <c r="W162" t="n">
-        <v>0.06088744476437569</v>
+        <v>0.2302222698926926</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3912858963012695</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.5166653990745544</v>
       </c>
       <c r="W163" t="n">
-        <v>0.02134341187775135</v>
+        <v>0.01572001911699772</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3917369842529297</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.8612437844276428</v>
       </c>
       <c r="W164" t="n">
-        <v>0.005547558423131704</v>
+        <v>0.2204366326332092</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3942949771881104</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.4132394790649414</v>
       </c>
       <c r="W165" t="n">
-        <v>0.06894627213478088</v>
+        <v>0.0003588941472116858</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4124469757080078</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.4219886362552643</v>
       </c>
       <c r="W166" t="n">
-        <v>0.05334660038352013</v>
+        <v>9.10432863747701e-05</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3934979438781738</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.494016170501709</v>
       </c>
       <c r="W167" t="n">
-        <v>0.02793462574481964</v>
+        <v>0.01010391395539045</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3904471397399902</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.8727032542228699</v>
       </c>
       <c r="W168" t="n">
-        <v>0.02158425003290176</v>
+        <v>0.2325709611177444</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3929500579833984</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.492256760597229</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01231365744024515</v>
+        <v>0.009861821308732033</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3924829959869385</v>
       </c>
       <c r="V170" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.4138279557228088</v>
       </c>
       <c r="W170" t="n">
-        <v>2.533575207053218e-05</v>
+        <v>0.0004556073108687997</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3917419910430908</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.516240119934082</v>
       </c>
       <c r="W171" t="n">
-        <v>0.001677920459769666</v>
+        <v>0.01549978367984295</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4212939739227295</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.4233807325363159</v>
       </c>
       <c r="W172" t="n">
-        <v>0.003192827804014087</v>
+        <v>4.354561497166287e-06</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3928179740905762</v>
       </c>
       <c r="V173" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.4940382242202759</v>
       </c>
       <c r="W173" t="n">
-        <v>0.06872989982366562</v>
+        <v>0.01024553924798965</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3930799961090088</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8645565509796143</v>
       </c>
       <c r="W174" t="n">
-        <v>0.06199723854660988</v>
+        <v>0.2222901433706284</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3947649002075195</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.3975269198417664</v>
       </c>
       <c r="W175" t="n">
-        <v>0.0001880668569356203</v>
+        <v>7.628752427990548e-06</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3946590423583984</v>
       </c>
       <c r="V176" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.5137109160423279</v>
       </c>
       <c r="W176" t="n">
-        <v>0.0003567586827557534</v>
+        <v>0.01417334843426943</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4033279418945312</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.3980599045753479</v>
       </c>
       <c r="W177" t="n">
-        <v>0.002760451985523105</v>
+        <v>2.775221764750313e-05</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3978321552276611</v>
       </c>
       <c r="V178" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.8681701421737671</v>
       </c>
       <c r="W178" t="n">
-        <v>0.06705022603273392</v>
+        <v>0.2212178260087967</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3914198875427246</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.8727680444717407</v>
       </c>
       <c r="W179" t="n">
-        <v>0.01219163928180933</v>
+        <v>0.2316960543394089</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4155261516571045</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.8788623213768005</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0001425978261977434</v>
+        <v>0.214680403470993</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4084370136260986</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.4216578602790833</v>
       </c>
       <c r="W181" t="n">
-        <v>0.01592000760138035</v>
+        <v>0.0001747907808749005</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8756601810455322</v>
       </c>
       <c r="V182" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.4042809903621674</v>
       </c>
       <c r="W182" t="n">
-        <v>0.2754956781864166</v>
+        <v>0.2221983373165131</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8943839073181152</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.397204577922821</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1448277533054352</v>
+        <v>0.2471872866153717</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.9345049858093262</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.8754398226737976</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2342291176319122</v>
+        <v>0.003488693386316299</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8672759532928467</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.3975473642349243</v>
       </c>
       <c r="W185" t="n">
-        <v>0.07756143063306808</v>
+        <v>0.2206449508666992</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.868955135345459</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.861160933971405</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2685132920742035</v>
+        <v>6.07495749136433e-05</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8733510971069336</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.509870171546936</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1128840446472168</v>
+        <v>0.1321183890104294</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.9259741306304932</v>
       </c>
       <c r="V188" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.8725387454032898</v>
       </c>
       <c r="W188" t="n">
-        <v>0.01347870100289583</v>
+        <v>0.002855340484529734</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8681478500366211</v>
       </c>
       <c r="V189" t="n">
-        <v>0.514474630355835</v>
+        <v>0.8730742335319519</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1250847429037094</v>
+        <v>2.4269254936371e-05</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8662369251251221</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.4969232380390167</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1506870836019516</v>
+        <v>0.1363925933837891</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8891890048980713</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.8854246735572815</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1942254155874252</v>
+        <v>1.417019029759103e-05</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9151740074157715</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.3972273766994476</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2014939934015274</v>
+        <v>0.2682686746120453</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8647229671478271</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.4956642389297485</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1053761392831802</v>
+        <v>0.1362043470144272</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8653371334075928</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.4037771224975586</v>
       </c>
       <c r="W194" t="n">
-        <v>0.112522579729557</v>
+        <v>0.2130376398563385</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8630771636962891</v>
       </c>
       <c r="V195" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.5059112310409546</v>
       </c>
       <c r="W195" t="n">
-        <v>0.006921561900526285</v>
+        <v>0.1275674998760223</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.9223558902740479</v>
       </c>
       <c r="V196" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.5169123411178589</v>
       </c>
       <c r="W196" t="n">
-        <v>0.06264438480138779</v>
+        <v>0.1643844693899155</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.863368034362793</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.8630572557449341</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1125173047184944</v>
+        <v>9.658334931827994e-08</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8847129344940186</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.4051998555660248</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2314625680446625</v>
+        <v>0.2299327999353409</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.862015962600708</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.4990419149398804</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1288352757692337</v>
+        <v>0.1317501664161682</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.916085958480835</v>
       </c>
       <c r="V200" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.4968757033348083</v>
       </c>
       <c r="W200" t="n">
-        <v>0.01763843186199665</v>
+        <v>0.1757372319698334</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8855190277099609</v>
       </c>
       <c r="V201" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.8690476417541504</v>
       </c>
       <c r="W201" t="n">
-        <v>0.006012957077473402</v>
+        <v>0.0002713065478019416</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5186710357666016</v>
       </c>
       <c r="V202" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.8685233592987061</v>
       </c>
       <c r="W202" t="n">
-        <v>0.02818713709712029</v>
+        <v>0.1223966479301453</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5278110504150391</v>
       </c>
       <c r="V203" t="n">
-        <v>0.944080114364624</v>
+        <v>0.3972041606903076</v>
       </c>
       <c r="W203" t="n">
-        <v>0.1732799261808395</v>
+        <v>0.01705816015601158</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5287308692932129</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.8644585609436035</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0261613130569458</v>
+        <v>0.1127130836248398</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5565071105957031</v>
       </c>
       <c r="V205" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.8911879062652588</v>
       </c>
       <c r="W205" t="n">
-        <v>0.05152980983257294</v>
+        <v>0.112011231482029</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5174281597137451</v>
       </c>
       <c r="V206" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.3972137868404388</v>
       </c>
       <c r="W206" t="n">
-        <v>0.08582426607608795</v>
+        <v>0.01445149537175894</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5194098949432373</v>
       </c>
       <c r="V207" t="n">
-        <v>0.350296825170517</v>
+        <v>0.8648015856742859</v>
       </c>
       <c r="W207" t="n">
-        <v>0.02859923057258129</v>
+        <v>0.1192954182624817</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5184791088104248</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.4120777547359467</v>
       </c>
       <c r="W208" t="n">
-        <v>0.0005358602502383292</v>
+        <v>0.01132124848663807</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5168070793151855</v>
       </c>
       <c r="V209" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.3993591964244843</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01906954310834408</v>
+        <v>0.01379400491714478</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5709750652313232</v>
       </c>
       <c r="V210" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.5160795450210571</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0449022650718689</v>
+        <v>0.003013518173247576</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5220320224761963</v>
       </c>
       <c r="V211" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.5067641735076904</v>
       </c>
       <c r="W211" t="n">
-        <v>0.0002297034516232088</v>
+        <v>0.0002331072173547</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5218250751495361</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.8639477491378784</v>
       </c>
       <c r="W212" t="n">
-        <v>0.001953985309228301</v>
+        <v>0.1170479208230972</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5204401016235352</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.8673850893974304</v>
       </c>
       <c r="W213" t="n">
-        <v>0.006367622874677181</v>
+        <v>0.1203708276152611</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.521388053894043</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.8799803256988525</v>
       </c>
       <c r="W214" t="n">
-        <v>0.000398684263927862</v>
+        <v>0.1285884231328964</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5228838920593262</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.8839552998542786</v>
       </c>
       <c r="W215" t="n">
-        <v>0.0004021287604700774</v>
+        <v>0.1303725689649582</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5268149375915527</v>
       </c>
       <c r="V216" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.4035219550132751</v>
       </c>
       <c r="W216" t="n">
-        <v>0.1759409457445145</v>
+        <v>0.01520115975290537</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5190198421478271</v>
       </c>
       <c r="V217" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.4036360383033752</v>
       </c>
       <c r="W217" t="n">
-        <v>0.02846805937588215</v>
+        <v>0.01331342197954655</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.518934965133667</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.5072888731956482</v>
       </c>
       <c r="W218" t="n">
-        <v>2.345230677747168e-05</v>
+        <v>0.0001356314605800435</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.522468090057373</v>
       </c>
       <c r="V219" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.5067380666732788</v>
       </c>
       <c r="W219" t="n">
-        <v>0.02038681134581566</v>
+        <v>0.000247433636104688</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5221879482269287</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.3995012640953064</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01802352257072926</v>
+        <v>0.01505202241241932</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.57470703125</v>
       </c>
       <c r="V221" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.5020930171012878</v>
       </c>
       <c r="W221" t="n">
-        <v>0.005174772348254919</v>
+        <v>0.005272794980555773</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3919291496276855</v>
       </c>
       <c r="V222" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.397225558757782</v>
       </c>
       <c r="W222" t="n">
-        <v>0.1708574295043945</v>
+        <v>2.805194890243001e-05</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3895421028137207</v>
       </c>
       <c r="V223" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.8663822412490845</v>
       </c>
       <c r="W223" t="n">
-        <v>0.181928962469101</v>
+        <v>0.2273765206336975</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3918740749359131</v>
       </c>
       <c r="V224" t="n">
-        <v>0.504324197769165</v>
+        <v>0.4132447242736816</v>
       </c>
       <c r="W224" t="n">
-        <v>0.01264503039419651</v>
+        <v>0.0004567046416923404</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.390617847442627</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.3994815349578857</v>
       </c>
       <c r="W225" t="n">
-        <v>0.09458447992801666</v>
+        <v>7.8564953582827e-05</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3914999961853027</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.8636969923973083</v>
       </c>
       <c r="W226" t="n">
-        <v>0.012165367603302</v>
+        <v>0.2229700088500977</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4559750556945801</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.5165018439292908</v>
       </c>
       <c r="W227" t="n">
-        <v>0.005720015615224838</v>
+        <v>0.00366349215619266</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.394665002822876</v>
       </c>
       <c r="V228" t="n">
-        <v>0.541418194770813</v>
+        <v>0.86884605884552</v>
       </c>
       <c r="W228" t="n">
-        <v>0.02153649926185608</v>
+        <v>0.224847674369812</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3966531753540039</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.4038035869598389</v>
       </c>
       <c r="W229" t="n">
-        <v>0.0209476612508297</v>
+        <v>5.112838698551059e-05</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3929951190948486</v>
       </c>
       <c r="V230" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.4115674495697021</v>
       </c>
       <c r="W230" t="n">
-        <v>0.168613463640213</v>
+        <v>0.000344931468134746</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3921401500701904</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.5049374103546143</v>
       </c>
       <c r="W231" t="n">
-        <v>0.06782420724630356</v>
+        <v>0.01272322237491608</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4185080528259277</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.5168124437332153</v>
       </c>
       <c r="W232" t="n">
-        <v>0.0002223706833319739</v>
+        <v>0.00966375321149826</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4497950077056885</v>
       </c>
       <c r="V233" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.4225753843784332</v>
       </c>
       <c r="W233" t="n">
-        <v>0.00542055256664753</v>
+        <v>0.0007409079116769135</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3949410915374756</v>
       </c>
       <c r="V234" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.4127310514450073</v>
       </c>
       <c r="W234" t="n">
-        <v>0.2997343242168427</v>
+        <v>0.000316482677590102</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3956999778747559</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.397211879491806</v>
       </c>
       <c r="W235" t="n">
-        <v>0.01211233250796795</v>
+        <v>2.285846449012752e-06</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3971719741821289</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.8645746111869812</v>
       </c>
       <c r="W236" t="n">
-        <v>4.138860458624549e-05</v>
+        <v>0.2184652239084244</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3914217948913574</v>
       </c>
       <c r="V237" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.8791592121124268</v>
       </c>
       <c r="W237" t="n">
-        <v>0.1785795986652374</v>
+        <v>0.2378877848386765</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3898739814758301</v>
       </c>
       <c r="V238" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.4039341807365417</v>
       </c>
       <c r="W238" t="n">
-        <v>0.07021324336528778</v>
+        <v>0.0001976892090169713</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3909099102020264</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.8612995743751526</v>
       </c>
       <c r="W239" t="n">
-        <v>0.0001629107428016141</v>
+        <v>0.221266433596611</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3873860836029053</v>
       </c>
       <c r="V240" t="n">
-        <v>0.782903790473938</v>
+        <v>0.4890613555908203</v>
       </c>
       <c r="W240" t="n">
-        <v>0.1564342528581619</v>
+        <v>0.01033786125481129</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3955919742584229</v>
       </c>
       <c r="V241" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.3980445861816406</v>
       </c>
       <c r="W241" t="n">
-        <v>0.1765987873077393</v>
+        <v>6.015305189066567e-06</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8959829807281494</v>
       </c>
       <c r="V242" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.4026105403900146</v>
       </c>
       <c r="W242" t="n">
-        <v>0.002692313864827156</v>
+        <v>0.2434163689613342</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8909528255462646</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.3972082734107971</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1422801166772842</v>
+        <v>0.2437836825847626</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.9313669204711914</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.4990275204181671</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2310427725315094</v>
+        <v>0.1869173496961594</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8746728897094727</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.8853452205657959</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1817055344581604</v>
+        <v>0.0001138986481237225</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8677859306335449</v>
       </c>
       <c r="V246" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.5069247484207153</v>
       </c>
       <c r="W246" t="n">
-        <v>0.2425340116024017</v>
+        <v>0.1302207857370377</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8777871131896973</v>
       </c>
       <c r="V247" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.3972283005714417</v>
       </c>
       <c r="W247" t="n">
-        <v>0.009014793671667576</v>
+        <v>0.2309367656707764</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.9214739799499512</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.4050689041614532</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1777460873126984</v>
+        <v>0.2666742205619812</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.872593879699707</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.872504711151123</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1355905532836914</v>
+        <v>7.951030056574382e-09</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8679699897766113</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.5068798661231995</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2426465004682541</v>
+        <v>0.130386084318161</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8824689388275146</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.8842235803604126</v>
       </c>
       <c r="W251" t="n">
-        <v>0.05757654830813408</v>
+        <v>3.07876689475961e-06</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9217450618743896</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.4960523843765259</v>
       </c>
       <c r="W252" t="n">
-        <v>0.2683631479740143</v>
+        <v>0.1812142580747604</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8927731513977051</v>
       </c>
       <c r="V253" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.505499541759491</v>
       </c>
       <c r="W253" t="n">
-        <v>0.06295692920684814</v>
+        <v>0.1499808430671692</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8702328205108643</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.4947604537010193</v>
       </c>
       <c r="W254" t="n">
-        <v>0.03925899788737297</v>
+        <v>0.1409794986248016</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8720419406890869</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.8612051606178284</v>
       </c>
       <c r="W255" t="n">
-        <v>0.05236032232642174</v>
+        <v>0.0001174358039861545</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9195168018341064</v>
       </c>
       <c r="V256" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.8771156072616577</v>
       </c>
       <c r="W256" t="n">
-        <v>0.3216312527656555</v>
+        <v>0.001797861303202808</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8811490535736084</v>
       </c>
       <c r="V257" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.5059934854507446</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2605612874031067</v>
+        <v>0.1407417058944702</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8789699077606201</v>
       </c>
       <c r="V258" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.4915275573730469</v>
       </c>
       <c r="W258" t="n">
-        <v>0.004251657985150814</v>
+        <v>0.1501115709543228</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8818638324737549</v>
       </c>
       <c r="V259" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.5261348485946655</v>
       </c>
       <c r="W259" t="n">
-        <v>0.005471907556056976</v>
+        <v>0.1265431046485901</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9344041347503662</v>
       </c>
       <c r="V260" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.8868157267570496</v>
       </c>
       <c r="W260" t="n">
-        <v>0.3406105041503906</v>
+        <v>0.002264656592160463</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8799490928649902</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.4958711266517639</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1843817234039307</v>
+        <v>0.1475158780813217</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5291008949279785</v>
       </c>
       <c r="V262" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.4036455452442169</v>
       </c>
       <c r="W262" t="n">
-        <v>0.01787814870476723</v>
+        <v>0.01573904417455196</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5541608333587646</v>
       </c>
       <c r="V263" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.5068238973617554</v>
       </c>
       <c r="W263" t="n">
-        <v>0.07097822427749634</v>
+        <v>0.002240785397589207</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5253040790557861</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.5166705846786499</v>
       </c>
       <c r="W264" t="n">
-        <v>0.00225307303480804</v>
+        <v>7.453722355421633e-05</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5294609069824219</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.5065320134162903</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01245515421032906</v>
+        <v>0.0005257341545075178</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5240299701690674</v>
       </c>
       <c r="V266" t="n">
-        <v>0.466268926858902</v>
+        <v>0.4228582978248596</v>
       </c>
       <c r="W266" t="n">
-        <v>0.00333633809350431</v>
+        <v>0.01023570727556944</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.523688793182373</v>
       </c>
       <c r="V267" t="n">
-        <v>0.350784033536911</v>
+        <v>0.8812782168388367</v>
       </c>
       <c r="W267" t="n">
-        <v>0.02989605627954006</v>
+        <v>0.1278702020645142</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5260989665985107</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.87131667137146</v>
       </c>
       <c r="W268" t="n">
-        <v>0.005690279416739941</v>
+        <v>0.1191752627491951</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5240709781646729</v>
       </c>
       <c r="V269" t="n">
-        <v>0.65655517578125</v>
+        <v>0.8731679320335388</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01755206286907196</v>
+        <v>0.121868684887886</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5618979930877686</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.3995012640953064</v>
       </c>
       <c r="W270" t="n">
-        <v>0.002315387362614274</v>
+        <v>0.02637269720435143</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5251791477203369</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.4244781136512756</v>
       </c>
       <c r="W271" t="n">
-        <v>0.01478270441293716</v>
+        <v>0.01014069840312004</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5325028896331787</v>
       </c>
       <c r="V272" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.3975517749786377</v>
       </c>
       <c r="W272" t="n">
-        <v>0.02616837061941624</v>
+        <v>0.01821180246770382</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5240340232849121</v>
       </c>
       <c r="V273" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.3993651568889618</v>
       </c>
       <c r="W273" t="n">
-        <v>0.182796522974968</v>
+        <v>0.01554232649505138</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5308098793029785</v>
       </c>
       <c r="V274" t="n">
-        <v>0.672245979309082</v>
+        <v>0.8927527070045471</v>
       </c>
       <c r="W274" t="n">
-        <v>0.02000417001545429</v>
+        <v>0.1310026049613953</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5849809646606445</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.4032706618309021</v>
       </c>
       <c r="W275" t="n">
-        <v>0.002258800202980638</v>
+        <v>0.03301863372325897</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5251448154449463</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.5152347683906555</v>
       </c>
       <c r="W276" t="n">
-        <v>0.002206909703090787</v>
+        <v>9.820903505897149e-05</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5267179012298584</v>
       </c>
       <c r="V277" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.8587778210639954</v>
       </c>
       <c r="W277" t="n">
-        <v>0.03109811246395111</v>
+        <v>0.1102637872099876</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5216169357299805</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.8979426622390747</v>
       </c>
       <c r="W278" t="n">
-        <v>0.0003904392651747912</v>
+        <v>0.1416210532188416</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5280008316040039</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.8780509829521179</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0001561454118927941</v>
+        <v>0.1225351095199585</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.52069091796875</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.8976966738700867</v>
       </c>
       <c r="W280" t="n">
-        <v>0.01370462868362665</v>
+        <v>0.1421333402395248</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5260829925537109</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.8667992949485779</v>
       </c>
       <c r="W281" t="n">
-        <v>0.0001530432055005804</v>
+        <v>0.1160876005887985</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4288549423217773</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.8625980615615845</v>
       </c>
       <c r="W282" t="n">
-        <v>0.006096286233514547</v>
+        <v>0.1881330907344818</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3983218669891357</v>
       </c>
       <c r="V283" t="n">
-        <v>0.654166579246521</v>
+        <v>0.8723846077919006</v>
       </c>
       <c r="W283" t="n">
-        <v>0.06545651704072952</v>
+        <v>0.2247354835271835</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3990941047668457</v>
       </c>
       <c r="V284" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.4010424613952637</v>
       </c>
       <c r="W284" t="n">
-        <v>0.0003214229654986411</v>
+        <v>3.796093551500235e-06</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3994898796081543</v>
       </c>
       <c r="V285" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.4050622582435608</v>
       </c>
       <c r="W285" t="n">
-        <v>0.0003392177459318191</v>
+        <v>3.105140422121622e-05</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3976750373840332</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.4039612710475922</v>
       </c>
       <c r="W286" t="n">
-        <v>3.14870267175138e-05</v>
+        <v>3.951673352275975e-05</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3977408409118652</v>
       </c>
       <c r="V287" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.8697486519813538</v>
       </c>
       <c r="W287" t="n">
-        <v>0.0001168616363429464</v>
+        <v>0.2227913737297058</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3986451625823975</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.5167596340179443</v>
       </c>
       <c r="W288" t="n">
-        <v>0.01334134489297867</v>
+        <v>0.01395102869719267</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4025769233703613</v>
       </c>
       <c r="V289" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.5166072845458984</v>
       </c>
       <c r="W289" t="n">
-        <v>0.01924678683280945</v>
+        <v>0.01300292368978262</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3969740867614746</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.4051726758480072</v>
       </c>
       <c r="W290" t="n">
-        <v>0.01146995276212692</v>
+        <v>6.721686077071354e-05</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3989620208740234</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.5008873343467712</v>
       </c>
       <c r="W291" t="n">
-        <v>0.08041542023420334</v>
+        <v>0.01038876920938492</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3971779346466064</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.8767160773277283</v>
       </c>
       <c r="W292" t="n">
-        <v>0.0137712424620986</v>
+        <v>0.2299568355083466</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3984119892120361</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.8924413919448853</v>
       </c>
       <c r="W293" t="n">
-        <v>0.0749945193529129</v>
+        <v>0.2440650463104248</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.394752025604248</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.4030607044696808</v>
       </c>
       <c r="W294" t="n">
-        <v>0.02149953134357929</v>
+        <v>6.903414760017768e-05</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3961420059204102</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.4234294295310974</v>
       </c>
       <c r="W295" t="n">
-        <v>0.01168245263397694</v>
+        <v>0.0007446035160683095</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3942232131958008</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.3993237018585205</v>
       </c>
       <c r="W296" t="n">
-        <v>0.01159541122615337</v>
+        <v>2.601498454168905e-05</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3977489471435547</v>
       </c>
       <c r="V297" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.4010475873947144</v>
       </c>
       <c r="W297" t="n">
-        <v>0.06609132885932922</v>
+        <v>1.088102726498619e-05</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3998439311981201</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.3971982300281525</v>
       </c>
       <c r="W298" t="n">
-        <v>0.002406528452411294</v>
+        <v>6.999734523560619e-06</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4500770568847656</v>
       </c>
       <c r="V299" t="n">
-        <v>0.656647801399231</v>
+        <v>0.4035536348819733</v>
       </c>
       <c r="W299" t="n">
-        <v>0.04267147183418274</v>
+        <v>0.002164428820833564</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4019060134887695</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.499532550573349</v>
       </c>
       <c r="W300" t="n">
-        <v>2.105359499182669e-06</v>
+        <v>0.009530941024422646</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.399806022644043</v>
       </c>
       <c r="V301" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.896196186542511</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0003600095224101096</v>
+        <v>0.2464031875133514</v>
       </c>
     </row>
     <row r="302" spans="1:23">
